--- a/関数名/関数名.xlsx
+++ b/関数名/関数名.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="242">
   <si>
     <t>圧電スピーカー</t>
     <rPh sb="0" eb="2">
@@ -761,13 +761,223 @@
   </si>
   <si>
     <t>standard</t>
+  </si>
+  <si>
+    <t>略称</t>
+  </si>
+  <si>
+    <t>元になった単語、由来</t>
+  </si>
+  <si>
+    <t>用途</t>
+  </si>
+  <si>
+    <t>c, ch</t>
+  </si>
+  <si>
+    <t>Character</t>
+  </si>
+  <si>
+    <t>1文字扱う変数</t>
+  </si>
+  <si>
+    <t>s, str</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>文字列を入れるとき</t>
+  </si>
+  <si>
+    <t>i, j, k</t>
+  </si>
+  <si>
+    <t>fortranの暗黙の型宣言</t>
+  </si>
+  <si>
+    <t>整数。特にループのカウントによく使われる</t>
+  </si>
+  <si>
+    <t>buf, buff</t>
+  </si>
+  <si>
+    <t>Buffer</t>
+  </si>
+  <si>
+    <t>バッファ。一時的にデータを保存する場所</t>
+  </si>
+  <si>
+    <t>temp</t>
+  </si>
+  <si>
+    <t>temporary</t>
+  </si>
+  <si>
+    <t>とりあえず、仮の</t>
+  </si>
+  <si>
+    <t>n, num</t>
+  </si>
+  <si>
+    <t>Number of ~</t>
+  </si>
+  <si>
+    <t>整数、何らかの数を指す</t>
+  </si>
+  <si>
+    <t>x, y, z</t>
+  </si>
+  <si>
+    <t>(x,y,z)</t>
+  </si>
+  <si>
+    <t>座標</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>Radius</t>
+  </si>
+  <si>
+    <t>半径</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>Pointer</t>
+  </si>
+  <si>
+    <t>ポインタ変数とそうでない変数を区別したいとき</t>
+  </si>
+  <si>
+    <t>rect</t>
+  </si>
+  <si>
+    <t>Rectangle</t>
+  </si>
+  <si>
+    <t>長方形</t>
+  </si>
+  <si>
+    <t>func</t>
+  </si>
+  <si>
+    <t>function</t>
+  </si>
+  <si>
+    <t>関数</t>
+  </si>
+  <si>
+    <t>arg</t>
+  </si>
+  <si>
+    <t>argument</t>
+  </si>
+  <si>
+    <t>引数</t>
+  </si>
+  <si>
+    <t>単語</t>
+  </si>
+  <si>
+    <t>ctr</t>
+  </si>
+  <si>
+    <t>Control</t>
+  </si>
+  <si>
+    <t>制御、指令（値）</t>
+  </si>
+  <si>
+    <t>trgt</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>対象、目標（値）</t>
+  </si>
+  <si>
+    <t>cmd</t>
+  </si>
+  <si>
+    <t>Command</t>
+  </si>
+  <si>
+    <t>指令</t>
+  </si>
+  <si>
+    <t>msg</t>
+  </si>
+  <si>
+    <t>messege</t>
+  </si>
+  <si>
+    <t>(処理に関する)メッセージ</t>
+  </si>
+  <si>
+    <t>spd</t>
+  </si>
+  <si>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t>速度</t>
+  </si>
+  <si>
+    <t>mv</t>
+  </si>
+  <si>
+    <t>Move</t>
+  </si>
+  <si>
+    <t>動作</t>
+  </si>
+  <si>
+    <t>cnst</t>
+  </si>
+  <si>
+    <t>Constant</t>
+  </si>
+  <si>
+    <t>一定、定速</t>
+  </si>
+  <si>
+    <t>md</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>モード</t>
+  </si>
+  <si>
+    <t>sts</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>ステータス</t>
+  </si>
+  <si>
+    <t>cnfg</t>
+  </si>
+  <si>
+    <t>configure</t>
+  </si>
+  <si>
+    <t>(設計)構造</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -832,8 +1042,27 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -858,8 +1087,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEEEEEE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -882,13 +1123,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -918,6 +1211,36 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1213,10 +1536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N33"/>
+  <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="R32" sqref="R32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="13.5"/>
@@ -1224,7 +1547,7 @@
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1244,7 +1567,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1264,7 +1587,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:14" ht="14.25" thickBot="1">
+    <row r="3" spans="1:17" ht="15" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1284,7 +1607,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" thickBot="1">
+    <row r="4" spans="1:17" ht="15" customHeight="1" thickBot="1">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1309,8 +1632,17 @@
         <v>58</v>
       </c>
       <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="1:14" ht="15" thickBot="1">
+      <c r="O4" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="P4" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q4" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="15" customHeight="1" thickBot="1">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1335,8 +1667,17 @@
         <v>60</v>
       </c>
       <c r="N5" s="1"/>
-    </row>
-    <row r="6" spans="1:14" ht="15" thickBot="1">
+      <c r="O5" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="P5" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q5" s="17" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="15" customHeight="1" thickBot="1">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1373,8 +1714,17 @@
         <v>62</v>
       </c>
       <c r="N6" s="1"/>
-    </row>
-    <row r="7" spans="1:14" ht="15" thickBot="1">
+      <c r="O6" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="P6" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q6" s="19" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="15" customHeight="1" thickBot="1">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
@@ -1407,8 +1757,17 @@
         <v>64</v>
       </c>
       <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="1:14" ht="15" thickBot="1">
+      <c r="O7" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="P7" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q7" s="17" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="15" customHeight="1" thickBot="1">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
@@ -1441,8 +1800,17 @@
         <v>66</v>
       </c>
       <c r="N8" s="1"/>
-    </row>
-    <row r="9" spans="1:14" ht="15" thickBot="1">
+      <c r="O8" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="P8" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q8" s="19" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="15" customHeight="1" thickBot="1">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
@@ -1475,8 +1843,17 @@
         <v>68</v>
       </c>
       <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="1:14" ht="15" thickBot="1">
+      <c r="O9" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="P9" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q9" s="17" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="15" customHeight="1" thickBot="1">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1505,8 +1882,17 @@
         <v>70</v>
       </c>
       <c r="N10" s="1"/>
-    </row>
-    <row r="11" spans="1:14" ht="15" thickBot="1">
+      <c r="O10" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="P10" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q10" s="19" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="15" customHeight="1" thickBot="1">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1535,8 +1921,17 @@
         <v>72</v>
       </c>
       <c r="N11" s="1"/>
-    </row>
-    <row r="12" spans="1:14" ht="15" thickBot="1">
+      <c r="O11" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="P11" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q11" s="17" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="15" customHeight="1" thickBot="1">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1561,8 +1956,17 @@
         <v>74</v>
       </c>
       <c r="N12" s="1"/>
-    </row>
-    <row r="13" spans="1:14" ht="15" thickBot="1">
+      <c r="O12" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="P12" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q12" s="19" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="15" customHeight="1" thickBot="1">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1591,8 +1995,17 @@
         <v>76</v>
       </c>
       <c r="N13" s="1"/>
-    </row>
-    <row r="14" spans="1:14" ht="15" thickBot="1">
+      <c r="O13" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="P13" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q13" s="17" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="15" customHeight="1" thickBot="1">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1617,8 +2030,17 @@
         <v>78</v>
       </c>
       <c r="N14" s="1"/>
-    </row>
-    <row r="15" spans="1:14" ht="15" thickBot="1">
+      <c r="O14" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="P14" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q14" s="19" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="15" customHeight="1" thickBot="1">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1643,8 +2065,17 @@
         <v>80</v>
       </c>
       <c r="N15" s="1"/>
-    </row>
-    <row r="16" spans="1:14" ht="15" thickBot="1">
+      <c r="O15" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="P15" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q15" s="17" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="15" customHeight="1" thickBot="1">
       <c r="A16" s="1" t="s">
         <v>139</v>
       </c>
@@ -1673,8 +2104,17 @@
         <v>82</v>
       </c>
       <c r="N16" s="1"/>
-    </row>
-    <row r="17" spans="1:14" ht="15" thickBot="1">
+      <c r="O16" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="P16" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q16" s="19" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="15" customHeight="1" thickBot="1">
       <c r="A17" s="1" t="s">
         <v>141</v>
       </c>
@@ -1704,7 +2144,7 @@
       </c>
       <c r="N17" s="1"/>
     </row>
-    <row r="18" spans="1:14" ht="15" thickBot="1">
+    <row r="18" spans="1:17" ht="15" customHeight="1" thickBot="1">
       <c r="A18" s="1" t="s">
         <v>7</v>
       </c>
@@ -1733,8 +2173,17 @@
         <v>86</v>
       </c>
       <c r="N18" s="1"/>
-    </row>
-    <row r="19" spans="1:14" ht="15" thickBot="1">
+      <c r="O18" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="P18" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q18" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="15" customHeight="1" thickBot="1">
       <c r="A19" s="1" t="s">
         <v>144</v>
       </c>
@@ -1763,8 +2212,17 @@
         <v>88</v>
       </c>
       <c r="N19" s="1"/>
-    </row>
-    <row r="20" spans="1:14" ht="15" thickBot="1">
+      <c r="O19" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="P19" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q19" s="11" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="15" customHeight="1" thickBot="1">
       <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
@@ -1793,8 +2251,17 @@
         <v>90</v>
       </c>
       <c r="N20" s="1"/>
-    </row>
-    <row r="21" spans="1:14" ht="15" thickBot="1">
+      <c r="O20" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="P20" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q20" s="12" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="15" customHeight="1" thickBot="1">
       <c r="A21" s="1" t="s">
         <v>10</v>
       </c>
@@ -1823,8 +2290,17 @@
         <v>92</v>
       </c>
       <c r="N21" s="1"/>
-    </row>
-    <row r="22" spans="1:14" ht="15" thickBot="1">
+      <c r="O21" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="P21" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q21" s="11" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="15" customHeight="1" thickBot="1">
       <c r="A22" s="1" t="s">
         <v>11</v>
       </c>
@@ -1853,8 +2329,17 @@
         <v>94</v>
       </c>
       <c r="N22" s="1"/>
-    </row>
-    <row r="23" spans="1:14" ht="15" thickBot="1">
+      <c r="O22" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="P22" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q22" s="12" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="15" customHeight="1" thickBot="1">
       <c r="A23" s="1" t="s">
         <v>12</v>
       </c>
@@ -1883,8 +2368,17 @@
         <v>96</v>
       </c>
       <c r="N23" s="1"/>
-    </row>
-    <row r="24" spans="1:14" ht="15" thickBot="1">
+      <c r="O23" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="P23" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q23" s="11" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="15" customHeight="1" thickBot="1">
       <c r="A24" s="1" t="s">
         <v>13</v>
       </c>
@@ -1913,8 +2407,17 @@
         <v>98</v>
       </c>
       <c r="N24" s="1"/>
-    </row>
-    <row r="25" spans="1:14" ht="15" thickBot="1">
+      <c r="O24" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="P24" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q24" s="12" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="15" customHeight="1" thickBot="1">
       <c r="A25" s="1" t="s">
         <v>14</v>
       </c>
@@ -1943,8 +2446,17 @@
         <v>100</v>
       </c>
       <c r="N25" s="1"/>
-    </row>
-    <row r="26" spans="1:14" ht="15" thickBot="1">
+      <c r="O25" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="P25" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q25" s="11" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="15" customHeight="1" thickBot="1">
       <c r="A26" s="1" t="s">
         <v>15</v>
       </c>
@@ -1973,8 +2485,17 @@
         <v>102</v>
       </c>
       <c r="N26" s="1"/>
-    </row>
-    <row r="27" spans="1:14" ht="15" thickBot="1">
+      <c r="O26" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="P26" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q26" s="12" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="15" customHeight="1" thickBot="1">
       <c r="A27" s="1" t="s">
         <v>16</v>
       </c>
@@ -2003,8 +2524,17 @@
         <v>104</v>
       </c>
       <c r="N27" s="1"/>
-    </row>
-    <row r="28" spans="1:14" ht="15" thickBot="1">
+      <c r="O27" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="P27" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q27" s="11" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="15" customHeight="1" thickBot="1">
       <c r="A28" s="1" t="s">
         <v>154</v>
       </c>
@@ -2033,8 +2563,17 @@
         <v>106</v>
       </c>
       <c r="N28" s="1"/>
-    </row>
-    <row r="29" spans="1:14" ht="15" thickBot="1">
+      <c r="O28" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="P28" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q28" s="12" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="15" thickBot="1">
       <c r="A29" s="1" t="s">
         <v>17</v>
       </c>
@@ -2064,7 +2603,7 @@
       </c>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="1:14" ht="15" thickBot="1">
+    <row r="30" spans="1:17" ht="15" thickBot="1">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -2090,7 +2629,7 @@
       </c>
       <c r="N30" s="1"/>
     </row>
-    <row r="31" spans="1:14" ht="15" thickBot="1">
+    <row r="31" spans="1:17" ht="15" thickBot="1">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -2116,7 +2655,7 @@
       </c>
       <c r="N31" s="1"/>
     </row>
-    <row r="32" spans="1:14" ht="15" thickBot="1">
+    <row r="32" spans="1:17" ht="15" thickBot="1">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>

--- a/関数名/関数名.xlsx
+++ b/関数名/関数名.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="244">
   <si>
     <t>圧電スピーカー</t>
     <rPh sb="0" eb="2">
@@ -971,13 +971,32 @@
   </si>
   <si>
     <t>(設計)構造</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>判定</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Decision</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1061,6 +1080,19 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF212121"/>
+      <name val="Inherit"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1100,7 +1132,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1175,13 +1207,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1241,6 +1282,12 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1539,7 +1586,7 @@
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R32" sqref="R32"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="13.5"/>
@@ -2602,6 +2649,12 @@
         <v>108</v>
       </c>
       <c r="N29" s="1"/>
+      <c r="P29" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q29" s="20" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="30" spans="1:17" ht="15" thickBot="1">
       <c r="A30" s="1"/>

--- a/関数名/関数名.xlsx
+++ b/関数名/関数名.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="246">
   <si>
     <t>圧電スピーカー</t>
     <rPh sb="0" eb="2">
@@ -990,6 +990,17 @@
   </si>
   <si>
     <t>Decision</t>
+  </si>
+  <si>
+    <t>position</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>番目</t>
+    <rPh sb="0" eb="2">
+      <t>バンメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1586,7 +1597,7 @@
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="13.5"/>
@@ -2738,8 +2749,12 @@
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
+      <c r="H33" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="I33" t="s">
+        <v>244</v>
+      </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>

--- a/関数名/関数名.xlsx
+++ b/関数名/関数名.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="248">
   <si>
     <t>圧電スピーカー</t>
     <rPh sb="0" eb="2">
@@ -1000,6 +1000,17 @@
     <rPh sb="0" eb="2">
       <t>バンメ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>四捨五入</t>
+    <rPh sb="0" eb="4">
+      <t>シシャゴニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rounding</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1594,10 +1605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="13.5"/>
@@ -2760,6 +2771,14 @@
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="H35" t="s">
+        <v>246</v>
+      </c>
+      <c r="I35" t="s">
+        <v>247</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/関数名/関数名.xlsx
+++ b/関数名/関数名.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="252">
   <si>
     <t>圧電スピーカー</t>
     <rPh sb="0" eb="2">
@@ -1013,12 +1013,32 @@
     <t>rounding</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>倍率</t>
+    <rPh sb="0" eb="2">
+      <t>バイリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>magnification</t>
+  </si>
+  <si>
+    <t>計算</t>
+    <rPh sb="0" eb="2">
+      <t>ケイサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Calculation</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1111,6 +1131,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF212121"/>
+      <name val="Inherit"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color rgb="FF212121"/>
       <name val="Inherit"/>
       <family val="2"/>
@@ -1244,7 +1270,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1309,6 +1335,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1605,10 +1634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="13.5"/>
@@ -2778,6 +2807,22 @@
       </c>
       <c r="I35" t="s">
         <v>247</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="H37" t="s">
+        <v>248</v>
+      </c>
+      <c r="I37" s="22" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="H38" t="s">
+        <v>250</v>
+      </c>
+      <c r="I38" s="22" t="s">
+        <v>251</v>
       </c>
     </row>
   </sheetData>

--- a/関数名/関数名.xlsx
+++ b/関数名/関数名.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="256">
   <si>
     <t>圧電スピーカー</t>
     <rPh sb="0" eb="2">
@@ -1032,6 +1032,29 @@
   </si>
   <si>
     <t>Calculation</t>
+  </si>
+  <si>
+    <t>変数</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>variable</t>
+  </si>
+  <si>
+    <t>remainder</t>
+  </si>
+  <si>
+    <t>割り算のあまり</t>
+    <rPh sb="0" eb="1">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ザン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1634,10 +1657,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q38"/>
+  <dimension ref="A1:Q42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="13.5"/>
@@ -2823,6 +2846,22 @@
       </c>
       <c r="I38" s="22" t="s">
         <v>251</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="H40" t="s">
+        <v>252</v>
+      </c>
+      <c r="I40" s="9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="H42" t="s">
+        <v>255</v>
+      </c>
+      <c r="I42" t="s">
+        <v>254</v>
       </c>
     </row>
   </sheetData>
